--- a/return_for_different_start_date.xlsx
+++ b/return_for_different_start_date.xlsx
@@ -1,38 +1,512 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Hika\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>2016_01_01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Return(not exit at the end)</t>
+  </si>
+  <si>
+    <t>Return(exit at the end)</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2016-01-02</t>
+  </si>
+  <si>
+    <t>2016-04-01</t>
+  </si>
+  <si>
+    <t>2016-01-03</t>
+  </si>
+  <si>
+    <t>2016-04-02</t>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>2016-04-03</t>
+  </si>
+  <si>
+    <t>2016-01-05</t>
+  </si>
+  <si>
+    <t>2016-04-04</t>
+  </si>
+  <si>
+    <t>2016-01-06</t>
+  </si>
+  <si>
+    <t>2016-04-05</t>
+  </si>
+  <si>
+    <t>2016-01-07</t>
+  </si>
+  <si>
+    <t>2016-04-06</t>
+  </si>
+  <si>
+    <t>2016-01-08</t>
+  </si>
+  <si>
+    <t>2016-04-07</t>
+  </si>
+  <si>
+    <t>2016-01-09</t>
+  </si>
+  <si>
+    <t>2016-04-08</t>
+  </si>
+  <si>
+    <t>2016-01-10</t>
+  </si>
+  <si>
+    <t>2016-04-09</t>
+  </si>
+  <si>
+    <t>2016-01-11</t>
+  </si>
+  <si>
+    <t>2016-04-10</t>
+  </si>
+  <si>
+    <t>2016-01-12</t>
+  </si>
+  <si>
+    <t>2016-04-11</t>
+  </si>
+  <si>
+    <t>2016-01-13</t>
+  </si>
+  <si>
+    <t>2016-04-12</t>
+  </si>
+  <si>
+    <t>2016-01-14</t>
+  </si>
+  <si>
+    <t>2016-04-13</t>
+  </si>
+  <si>
+    <t>2016-01-15</t>
+  </si>
+  <si>
+    <t>2016-04-14</t>
+  </si>
+  <si>
+    <t>2016-01-16</t>
+  </si>
+  <si>
+    <t>2016-04-15</t>
+  </si>
+  <si>
+    <t>2016-01-17</t>
+  </si>
+  <si>
+    <t>2016-04-16</t>
+  </si>
+  <si>
+    <t>2016-01-18</t>
+  </si>
+  <si>
+    <t>2016-04-17</t>
+  </si>
+  <si>
+    <t>2016-01-19</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>2016-01-20</t>
+  </si>
+  <si>
+    <t>2016-04-19</t>
+  </si>
+  <si>
+    <t>2016-01-21</t>
+  </si>
+  <si>
+    <t>2016-04-20</t>
+  </si>
+  <si>
+    <t>2016-01-22</t>
+  </si>
+  <si>
+    <t>2016-04-21</t>
+  </si>
+  <si>
+    <t>2016-01-23</t>
+  </si>
+  <si>
+    <t>2016-04-22</t>
+  </si>
+  <si>
+    <t>2016-01-24</t>
+  </si>
+  <si>
+    <t>2016-04-23</t>
+  </si>
+  <si>
+    <t>2016-01-25</t>
+  </si>
+  <si>
+    <t>2016-04-24</t>
+  </si>
+  <si>
+    <t>2016-01-26</t>
+  </si>
+  <si>
+    <t>2016-04-25</t>
+  </si>
+  <si>
+    <t>2016-01-27</t>
+  </si>
+  <si>
+    <t>2016-04-26</t>
+  </si>
+  <si>
+    <t>2016-01-28</t>
+  </si>
+  <si>
+    <t>2016-04-27</t>
+  </si>
+  <si>
+    <t>2016-01-29</t>
+  </si>
+  <si>
+    <t>2016-04-28</t>
+  </si>
+  <si>
+    <t>2016-01-30</t>
+  </si>
+  <si>
+    <t>2016-04-29</t>
+  </si>
+  <si>
+    <t>2016-01-31</t>
+  </si>
+  <si>
+    <t>2016-04-30</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
+  </si>
+  <si>
+    <t>2016-05-01</t>
+  </si>
+  <si>
+    <t>2016-02-02</t>
+  </si>
+  <si>
+    <t>2016-05-02</t>
+  </si>
+  <si>
+    <t>2016-02-03</t>
+  </si>
+  <si>
+    <t>2016-05-03</t>
+  </si>
+  <si>
+    <t>2016-02-04</t>
+  </si>
+  <si>
+    <t>2016-05-04</t>
+  </si>
+  <si>
+    <t>2016-02-05</t>
+  </si>
+  <si>
+    <t>2016-05-05</t>
+  </si>
+  <si>
+    <t>2016-02-06</t>
+  </si>
+  <si>
+    <t>2016-05-06</t>
+  </si>
+  <si>
+    <t>2016-02-07</t>
+  </si>
+  <si>
+    <t>2016-05-07</t>
+  </si>
+  <si>
+    <t>2016-02-08</t>
+  </si>
+  <si>
+    <t>2016-05-08</t>
+  </si>
+  <si>
+    <t>2016-02-09</t>
+  </si>
+  <si>
+    <t>2016-05-09</t>
+  </si>
+  <si>
+    <t>2016-02-10</t>
+  </si>
+  <si>
+    <t>2016-05-10</t>
+  </si>
+  <si>
+    <t>2016-02-11</t>
+  </si>
+  <si>
+    <t>2016-05-11</t>
+  </si>
+  <si>
+    <t>2016-02-12</t>
+  </si>
+  <si>
+    <t>2016-05-12</t>
+  </si>
+  <si>
+    <t>2016-02-13</t>
+  </si>
+  <si>
+    <t>2016-05-13</t>
+  </si>
+  <si>
+    <t>2016-02-14</t>
+  </si>
+  <si>
+    <t>2016-05-14</t>
+  </si>
+  <si>
+    <t>2016-02-15</t>
+  </si>
+  <si>
+    <t>2016-05-15</t>
+  </si>
+  <si>
+    <t>2016-02-16</t>
+  </si>
+  <si>
+    <t>2016-05-16</t>
+  </si>
+  <si>
+    <t>2016-02-17</t>
+  </si>
+  <si>
+    <t>2016-05-17</t>
+  </si>
+  <si>
+    <t>2016-02-18</t>
+  </si>
+  <si>
+    <t>2016-05-18</t>
+  </si>
+  <si>
+    <t>2016-02-19</t>
+  </si>
+  <si>
+    <t>2016-05-19</t>
+  </si>
+  <si>
+    <t>2016-02-20</t>
+  </si>
+  <si>
+    <t>2016-05-20</t>
+  </si>
+  <si>
+    <t>2016-02-21</t>
+  </si>
+  <si>
+    <t>2016-05-21</t>
+  </si>
+  <si>
+    <t>2016-02-22</t>
+  </si>
+  <si>
+    <t>2016-05-22</t>
+  </si>
+  <si>
+    <t>2016-02-23</t>
+  </si>
+  <si>
+    <t>2016-05-23</t>
+  </si>
+  <si>
+    <t>2016-02-24</t>
+  </si>
+  <si>
+    <t>2016-05-24</t>
+  </si>
+  <si>
+    <t>2016-02-25</t>
+  </si>
+  <si>
+    <t>2016-05-25</t>
+  </si>
+  <si>
+    <t>2016-02-26</t>
+  </si>
+  <si>
+    <t>2016-05-26</t>
+  </si>
+  <si>
+    <t>2016-02-27</t>
+  </si>
+  <si>
+    <t>2016-05-27</t>
+  </si>
+  <si>
+    <t>2016-02-28</t>
+  </si>
+  <si>
+    <t>2016-05-28</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2016-05-29</t>
+  </si>
+  <si>
+    <t>2016-03-01</t>
+  </si>
+  <si>
+    <t>2016-05-30</t>
+  </si>
+  <si>
+    <t>2016-03-02</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-03-03</t>
+  </si>
+  <si>
+    <t>2016-06-01</t>
+  </si>
+  <si>
+    <t>2016-03-04</t>
+  </si>
+  <si>
+    <t>2016-06-02</t>
+  </si>
+  <si>
+    <t>2016-03-05</t>
+  </si>
+  <si>
+    <t>2016-06-03</t>
+  </si>
+  <si>
+    <t>2016-03-06</t>
+  </si>
+  <si>
+    <t>2016-06-04</t>
+  </si>
+  <si>
+    <t>2016-03-07</t>
+  </si>
+  <si>
+    <t>2016-06-05</t>
+  </si>
+  <si>
+    <t>2016-03-08</t>
+  </si>
+  <si>
+    <t>2016-06-06</t>
+  </si>
+  <si>
+    <t>2016-03-09</t>
+  </si>
+  <si>
+    <t>2016-06-07</t>
+  </si>
+  <si>
+    <t>2016-03-10</t>
+  </si>
+  <si>
+    <t>2016-06-08</t>
+  </si>
+  <si>
+    <t>2016-03-11</t>
+  </si>
+  <si>
+    <t>2016-06-09</t>
+  </si>
+  <si>
+    <t>2016-03-12</t>
+  </si>
+  <si>
+    <t>2016-06-10</t>
+  </si>
+  <si>
+    <t>2016-03-13</t>
+  </si>
+  <si>
+    <t>2016-06-11</t>
+  </si>
+  <si>
+    <t>2016-03-14</t>
+  </si>
+  <si>
+    <t>2016-06-12</t>
+  </si>
+  <si>
+    <t>2016-03-15</t>
+  </si>
+  <si>
+    <t>2016-06-13</t>
+  </si>
+  <si>
+    <t>2016-03-16</t>
+  </si>
+  <si>
+    <t>2016-06-14</t>
+  </si>
+  <si>
+    <t>2016-03-17</t>
+  </si>
+  <si>
+    <t>2016-06-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#.#0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#.##0%"/>
+    <numFmt numFmtId="165" formatCode="#0.##0%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +525,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,16 +557,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -132,7 +623,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,9 +655,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,6 +690,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,30 +866,1345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.135897790517504</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.135897790517504</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.135897790517504</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.135897790517504</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.135897790517504</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.135897790517504</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.135897790517504</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.135897790517504</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.137845449003731</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.137845449003731</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.4800003863223705E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.4800003863223705E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.122304214241649</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.122304214241649</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.113710077721209</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.113710077721209</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.111316356883416</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.111316356883416</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.111316356883416</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.111316356883416</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.111316356883416</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.111316356883416</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.11682332530761499</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.11682332530761499</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.116916042578198</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.116916042578198</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.11911745824649</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.11911745824649</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.120087507149195</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.120087507149195</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.181657261260769</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.181657261260769</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.181657261260769</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.181657261260769</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.181657261260769</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.181657261260769</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.181657261260769</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.181657261260769</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-1.09123169480857E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-1.09123169480857E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.12847713770198199</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.12785999486864899</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6.17142833333306E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.15060619518514801</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.152402455854215</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-1.79626066906682E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.13652420643517399</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.134320467104241</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.2037393309331799E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.13652420643517399</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.134320467104241</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.2037393309331799E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.13652420643517399</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.134320467104241</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.2037393309331799E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.14058818516573199</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.14838444583479901</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-7.7962606690668299E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.12848316351915101</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.114146090854884</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.43370726642665E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.190600803529447</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.16417618481767601</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.6424618711770601E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="4">
+        <v>-3.7783486814264898E-3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-4.3149561330105397E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.9371212648678898E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.179330645179375</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.13409276586402999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.5237879315345397E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.179330645179375</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.13409276586402999</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4.5237879315345397E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.179330645179375</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.13409276586402999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4.5237879315345397E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.19714217330601699</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.21057096065733799</v>
+      </c>
+      <c r="E34" s="4">
+        <v>-1.3428787351321299E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.246733066469662</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.246733066469662</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.12051580653749699</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.12051580653749699</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.246081144100987</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.246081144100987</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.24370073919445401</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.24370073919445401</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.24370073919445401</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.24370073919445401</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.24370073919445401</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.24370073919445401</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.23016812942752499</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.23016812942752499</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.253631126715118</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.253631126715118</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.12703099905927201</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.12703099905927201</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.224661383868831</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.22591305990216401</v>
+      </c>
+      <c r="E44" s="4">
+        <v>-1.25167603333334E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.20433598480134599</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.20578766083468</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-1.45167603333335E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.20433598480134599</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.20578766083468</v>
+      </c>
+      <c r="E46" s="4">
+        <v>-1.45167603333335E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.20433598480134599</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.20578766083468</v>
+      </c>
+      <c r="E47" s="4">
+        <v>-1.45167603333335E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.20433598480134599</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.19995703705534601</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4.3789477460000103E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.20658849712357799</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.19904174353440501</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7.5467535891732603E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.23296155890415299</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.234614805314979</v>
+      </c>
+      <c r="E50" s="4">
+        <v>-1.65324641082673E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.23340411284769599</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.23340411284769599</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.21489440851176</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.21489440851176</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.21489440851176</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.21489440851176</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.21489440851176</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.21489440851176</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.208902642231826</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.208902642231826</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.21202539411659299</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.21202539411659299</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.20101253527216001</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.20083863403882601</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.7390123333332899E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.154895479952423</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.155788245385756</v>
+      </c>
+      <c r="E58" s="4">
+        <v>-8.9276543333333103E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.19530536891049299</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.195598134343826</v>
+      </c>
+      <c r="E59" s="4">
+        <v>-2.9276543333334198E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.19530536891049299</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.195598134343826</v>
+      </c>
+      <c r="E60" s="4">
+        <v>-2.9276543333334198E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.19530536891049299</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.195598134343826</v>
+      </c>
+      <c r="E61" s="4">
+        <v>-2.9276543333334198E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.14934697795882301</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.14963974339215599</v>
+      </c>
+      <c r="E62" s="4">
+        <v>-2.9276543333334198E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.121188415531</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.123881180964334</v>
+      </c>
+      <c r="E63" s="4">
+        <v>-2.6927654333333399E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.12831098034569499</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.12831098034569499</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.106822993403508</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.106822993403508</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.118737976425241</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.118737976425241</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.118737976425241</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.118737976425241</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.118737976425241</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.118737976425241</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.115683458288144</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.115683458288144</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.10946210058815201</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.10941639602148499</v>
+      </c>
+      <c r="E70" s="2">
+        <v>4.5704566666665599E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.121821283443232</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.117888960218565</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3.9323232246665897E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.13112315907335501</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.134324169182022</v>
+      </c>
+      <c r="E72" s="4">
+        <v>-3.2010101086667199E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.117854934388091</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.117854934388091</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.117854934388091</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.117854934388091</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.117854934388091</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.117854934388091</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.154413298092484</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.154413298092484</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.13430783643608599</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.13430783643608599</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.13938973883536099</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.13938973883536099</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
